--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45450</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45974.41212962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45985.51141203703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>45425.6046875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45583.63887731481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45770.67532407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45560</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45390</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45945.72927083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45945.73045138889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45755.36076388889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44908</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>45385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45827.32181712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>45922.45571759259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>45832.49878472222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45937.61167824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45596</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>45428.53730324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>45832.4766087963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45408.41627314815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45428.53546296297</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>45586.57997685186</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45537.55462962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>45537.55276620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>45568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>45078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45777</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45777.44048611111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>45792.61555555555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44879</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44263.64922453704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44268</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44466</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44674</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44829</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44531.42773148148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44330.60070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44545</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44741.54643518518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44421</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44823.60164351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44505.74206018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44292.7343287037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44421</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44333.39509259259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44544.39552083334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44267</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44267</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>44531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>44335.33380787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44383</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44651.60453703703</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44829.80922453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45447.63224537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45397</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>45174</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45407.62637731482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44728</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>45617.50194444445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>45434.84836805556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44728.36739583333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45097.7222337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45435</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45762.61646990741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45058</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45237.620625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45604</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>45425.6054050926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45425.60623842593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45609.61686342592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45244</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45406</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45428.5359837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>45506.54628472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>45447.64212962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44910.36125</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>45420</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>44468.45143518518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44468.32862268519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45216.65878472223</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45375.47375</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45250.57809027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45434</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45247</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45505.57873842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45804.46195601852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45162.55780092593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45610</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45804</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45888.59943287037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>45888.60707175926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>45888.60222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45888.60400462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>45407.62472222222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45889.37228009259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44935.52166666667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45250.47649305555</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45425.60681712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45890.67935185185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>45747.65975694444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>45770.67399305556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45758.58688657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>45480</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>45462</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45568.62128472222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>45897.44625</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>45571</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45896.31319444445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45896.31145833333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45897.44892361111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45897.42736111111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>45897.43260416666</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>45897.44212962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45897.43825231482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>45897.43640046296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45477</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>45232</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45532</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45819.60267361111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45819.60489583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45406.39024305555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>45901.61650462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>45819.60143518518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>45819.60548611111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45819.59966435185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>45819.60196759259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>45819.6034375</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45756.58886574074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45820.55424768518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>45820.61237268519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>45821.51143518519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45821.50982638889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>44859</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>45904.65384259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45905.42334490741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45905.42670138889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45825.74498842593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45910.4111574074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45910.4034837963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>45825.76006944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>45910.41498842592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45827.56777777777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45915.60364583333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>45915.60597222222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45915.61349537037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45915.60770833334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45915.61032407408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45915.61162037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45740.3633449074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>45527.65517361111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45827.32541666667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45901.62226851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45245</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45827.639375</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45827</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45826.36166666666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>45826.35914351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44603</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45198</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>45919.42525462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>45919.42916666667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>45919.4278125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45919.43328703703</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45918.67474537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>45919.42439814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45832.50582175926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>45832.34391203704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>45832.34569444445</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45922.45440972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44993</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45832.83354166667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>45246</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45925.37690972222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45485.57519675926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44894.62520833333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45931.35510416667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45931.35840277778</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45485</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45485.57574074074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>45931.3474074074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45931.34961805555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45931.35269675926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45617</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45393</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45754.38666666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>45586.58811342593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>45428.53678240741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>45937.61589120371</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>45198</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>45937.61268518519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>45937.61363425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063.58920138889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45063.59385416667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45937.61035879629</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45114</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>45945.72582175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45571</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45571</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45237.59635416666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45848.53237268519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45947</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>45947</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45947.39391203703</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45947.39518518518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45853.41648148148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45554.55488425926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45853</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>45410.6364699074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45952</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45747.69229166667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45134.37332175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45096.67586805556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45571.72634259259</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45957.6533449074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45873.63013888889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>45957.35716435185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45740.60653935185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45407.62880787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45873.50177083333</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45520</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45376.34787037037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45959.71185185185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45958.46645833334</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45754.3925</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>44974.56199074074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45068.53958333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45873.77577546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>45960.67104166667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45960.37422453704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>45329</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>45880.70201388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>45965.6058912037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45967.6133449074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44903.48206018518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44648.67829861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45967.60951388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>45967.61164351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45586</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45973.4725462963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45973.36837962963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44936.45689814815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45973.37097222222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45973.37315972222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45975</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44236</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>45974.51658564815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45538.36081018519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45979.71456018519</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45537.55677083333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45981.39396990741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45980.42792824074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>45980.43162037037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45980.43300925926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>45583.63666666667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>45740.37228009259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45740.38309027778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>45177</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45771</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45987.47481481481</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45397</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44469.68425925926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>44466.58774305556</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>44468</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>45420</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>44462</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45531.35479166666</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44468.32285879629</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45404.54581018518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45992.52398148148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45609</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45992.5246412037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>44308.49021990741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>46037.57989583333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>46037.58167824074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>45512.46059027778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45604</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44455.64971064815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44803</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45617.56130787037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>46003.45998842592</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45429</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>46051.5083912037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>45054.77178240741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>46009.40707175926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45901.64753472222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>46009.40394675926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>46051.49467592593</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45408.41509259259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>46051.47138888889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>46008.45440972222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45056.70799768518</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>45474</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45390</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45447.60587962963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>45485</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>45555</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>45387.39675925926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>46056.46806712963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45257.33018518519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45063.59221064814</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>45534</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>45401</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>45156</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45553</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45096.67375</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>45170</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45583.64019675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45609</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45720.33230324074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45583.64113425926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>45574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>45574</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>45574</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44410.59598379629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45082.48634259259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44498.46020833333</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45128</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>45169</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>45554.55842592593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>45085.45267361111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>45617.58048611111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44965</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45114</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45617.50403935185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45617</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45359</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>45006.46628472222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45385</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45401.64908564815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44967</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>45740.36778935185</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45568</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>45643</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>45693.38986111111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>45435</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44995</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44806.65509259259</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44883</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>45554</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>45554.54996527778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44519.46189814815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45156.45701388889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45617.65555555555</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45252.6237962963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>45504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>45762.61513888889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45377.57371527778</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45377.5744212963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45414</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45306.62385416667</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45306.63797453704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45306.64103009259</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>45170.3894212963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>45597</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>45741</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>45737.39099537037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>45519.53638888889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45744.54480324074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44995</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45555</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45180.61459490741</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45264.6962037037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45520</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44713</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45532</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45532</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45554.55740740741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45048.42040509259</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45359.58559027778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45532.41152777777</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45322</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45114</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45506</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45686.39192129629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45609</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45099</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45170.44954861111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>45252.62059027778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>45014</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>45762.61232638889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44421.48729166666</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45777.43487268518</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45777</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45377</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45541.66181712963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>44867.84059027778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45786.35387731482</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>45786.3565162037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45786.33869212963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45786.35171296296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45547.47407407407</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45480</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45791.38737268518</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45786</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45792.66241898148</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>45792.67262731482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45792.67484953703</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>45792.6740162037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45443</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>45527</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>45476.56349537037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45450</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45974.41212962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45985.51141203703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>45425.6046875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45583.63887731481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45770.67532407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45560</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45390</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45945.72927083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45945.73045138889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45755.36076388889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44908</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>45385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45827.32181712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>45922.45571759259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>45832.49878472222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45937.61167824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45596</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>45428.53730324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>45832.4766087963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45408.41627314815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45428.53546296297</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>45586.57997685186</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45537.55462962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>45537.55276620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>45568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>45078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45777</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45777.44048611111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>45792.61555555555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44879</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44263.64922453704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44268</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44466</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44674</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44829</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44531.42773148148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44330.60070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44545</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44741.54643518518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44421</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44823.60164351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44505.74206018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44292.7343287037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44421</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44333.39509259259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44544.39552083334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44267</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44267</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>44531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>44335.33380787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44383</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44651.60453703703</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44829.80922453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45447.63224537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45397</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>45174</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45407.62637731482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44728</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>45617.50194444445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>45434.84836805556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44728.36739583333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45097.7222337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45435</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45762.61646990741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45058</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45237.620625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45604</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>45425.6054050926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45425.60623842593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45609.61686342592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45244</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45406</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45428.5359837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>45506.54628472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>45447.64212962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44910.36125</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>45420</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>44468.45143518518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44468.32862268519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45637</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45216.65878472223</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45375.47375</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45250.57809027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45434</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45247</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45505.57873842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45804.46195601852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45162.55780092593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45610</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45804</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45888.59943287037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>45888.60707175926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>45888.60222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45888.60400462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>45407.62472222222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45889.37228009259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45686</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44935.52166666667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45250.47649305555</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45425.60681712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45890.67935185185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>45747.65975694444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>45770.67399305556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45758.58688657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>45480</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>45462</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45568.62128472222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>45897.44625</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>45571</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45896.31319444445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45896.31145833333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45897.44892361111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45897.42736111111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>45897.43260416666</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>45897.44212962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45897.43825231482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>45897.43640046296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>45477</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>45232</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45532</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45819.60267361111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45819.60489583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45406.39024305555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>45901.61650462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>45819.60143518518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>45819.60548611111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45819.59966435185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>45819.60196759259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>45819.6034375</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45756.58886574074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45820.55424768518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>45820.61237268519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>45821.51143518519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45821.50982638889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>44859</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>45904.65384259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45905.42334490741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45905.42670138889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45825.74498842593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45910.4111574074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45910.4034837963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>45825.76006944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>45910.41498842592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45827.56777777777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45915.60364583333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>45915.60597222222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45915.61349537037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45915.60770833334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45915.61032407408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45915.61162037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45740.3633449074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>45527.65517361111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45827.32541666667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45901.62226851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45245</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45827.639375</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45827</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45826.36166666666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>45826.35914351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44603</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45198</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>45919.42525462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>45919.42916666667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>45919.4278125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45919.43328703703</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45918.67474537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>45919.42439814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45832.50582175926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>45832.34391203704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>45832.34569444445</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45922.45440972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44993</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45832.83354166667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>45246</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45925.37690972222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45485.57519675926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44894.62520833333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45931.35510416667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45931.35840277778</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45485</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45485.57574074074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>45931.3474074074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45931.34961805555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45931.35269675926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45617</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45393</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45754.38666666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>45586.58811342593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>45428.53678240741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>45937.61589120371</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>45198</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>45937.61268518519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>45937.61363425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45063.58920138889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45063.59385416667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45937.61035879629</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45114</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>45945.72582175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45571</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45571</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45237.59635416666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45848.53237268519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45947</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>45947</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45947.39391203703</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45947.39518518518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45853.41648148148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45554.55488425926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45853</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>45410.6364699074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45952</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45747.69229166667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45134.37332175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45096.67586805556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45571.72634259259</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45957.6533449074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45873.63013888889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>45957.35716435185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45740.60653935185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45407.62880787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45873.50177083333</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45520</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45376.34787037037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45959.71185185185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45958.46645833334</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45754.3925</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>44974.56199074074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45068.53958333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45873.77577546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45090</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>45960.67104166667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45960.37422453704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>45329</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>45880.70201388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>45965.6058912037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45967.6133449074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44903.48206018518</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44648.67829861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45967.60951388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>45967.61164351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45586</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45973.4725462963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45973.36837962963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44936.45689814815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45973.37097222222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45973.37315972222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45975</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44236</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>45974.51658564815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45538.36081018519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45979.71456018519</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45537.55677083333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45981.39396990741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45980.42792824074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>45980.43162037037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45980.43300925926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>45583.63666666667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>45740.37228009259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45740.38309027778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>45177</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45771</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45987.47481481481</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45397</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>44475</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44469.68425925926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>44466.58774305556</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>44468</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>45420</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>44462</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45531.35479166666</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44468.32285879629</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45404.54581018518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45992.52398148148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45609</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45992.5246412037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>44308.49021990741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>46037.57989583333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>46037.58167824074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>45512.46059027778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45604</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44455.64971064815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44803</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45617.56130787037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>46003.45998842592</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45429</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>46051.5083912037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>45054.77178240741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>46009.40707175926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45901.64753472222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>46009.40394675926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>46051.49467592593</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45408.41509259259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>46051.47138888889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>46008.45440972222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45056.70799768518</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>45474</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45390</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45447.60587962963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>45485</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>45555</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>45387.39675925926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>46056.46806712963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>45257.33018518519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45063.59221064814</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>45534</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>45401</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>45156</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45553</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45096.67375</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>45170</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>45558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45583.64019675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45609</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45720.33230324074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45583.64113425926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>45574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>45574</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>45574</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44410.59598379629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45082.48634259259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>44498.46020833333</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45128</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>45169</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>45554.55842592593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>45085.45267361111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>45617.58048611111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44965</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45114</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45617.50403935185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45617</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45359</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>45006.46628472222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45385</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45401.64908564815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44967</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>45740.36778935185</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45568</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>45643</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>45693.38986111111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>45435</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44995</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44806.65509259259</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44883</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>45554</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>45554.54996527778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>44519.46189814815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45156.45701388889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45617.65555555555</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45252.6237962963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>45504</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>45762.61513888889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45377.57371527778</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45377.5744212963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45414</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45306.62385416667</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45306.63797453704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45306.64103009259</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>45170.3894212963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>45597</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>45741</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>45737.39099537037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>45519.53638888889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45744.54480324074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44995</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45555</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45180.61459490741</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45264.6962037037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45520</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>44713</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45532</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45532</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45554.55740740741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45048.42040509259</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45359.58559027778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45532.41152777777</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45322</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45114</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45506</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45686.39192129629</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45609</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45099</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45170.44954861111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>45252.62059027778</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45014</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>45014</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>45762.61232638889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45040</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44421.48729166666</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45777.43487268518</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45777</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45377</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45541.66181712963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>44867.84059027778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45786.35387731482</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>45786.3565162037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45786.33869212963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45786.35171296296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45547.47407407407</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45480</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45791.38737268518</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45786</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45792.66241898148</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>45792.67262731482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45792.67484953703</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>45792.6740162037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45443</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>45527</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>45476.56349537037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45450</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45974.41212962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45985.51141203703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>45425.6046875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45583.63887731481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45560</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45770.67532407407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45390</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45945.72927083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45945.73045138889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45755.36076388889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44908</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>45385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45827.32181712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>45832.49878472222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>45922.45571759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45832.4766087963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>45596</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45428.53730324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45937.61167824074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45408.41627314815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45428.53546296297</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>45586.57997685186</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45537.55462962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>45537.55276620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>45568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>45078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45777</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45777.44048611111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>45792.61555555555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44545</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44879</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44263.64922453704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44268</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44466</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44674</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44829</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44531.42773148148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44330.60070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44545</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44741.54643518518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44421</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44823.60164351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44505.74206018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44292.7343287037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44333.39509259259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>44421</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44544.39552083334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44267</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44267</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>44531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>44335.33380787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44383</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44651.60453703703</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44829.80922453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45447.63224537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45174</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>45397</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44728</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45407.62637731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>45434.84836805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45617.50194444445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44728.36739583333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45097.7222337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45762.61646990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45058</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45237.620625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45604</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>45425.6054050926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45425.60623842593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45609.61686342592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45244</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45406</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45428.5359837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>45506.54628472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>45447.64212962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44910.36125</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>45420</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>45637</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>45216.65878472223</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44974</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44468.32862268519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44468.45143518518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45375.47375</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45250.57809027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45434</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45247</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45505.57873842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45162.55780092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45610</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45407.62472222222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45686</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45250.47649305555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>45425.60681712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>44935.52166666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>45770.67399305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45758.58688657408</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45819.60267361111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>45819.60489583333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45568.62128472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45819.60143518518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>45819.60548611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>45819.59966435185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45819.60196759259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>45819.6034375</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>45477</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45232</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45532</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45820.55424768518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45406.39024305555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45820.61237268519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45821.51143518519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45821.50982638889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>45888.59943287037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45888.60707175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45825.74498842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>45888.60222222222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45888.60400462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>45889.37228009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44859</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45825.76006944444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45890.67935185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45747.65975694444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>45827.56777777777</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45827.32541666667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45827.639375</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>45827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>45826.36166666666</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>45826.35914351852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45897.44625</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>45896.31319444445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45896.31145833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45832.50582175926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>45832.34391203704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>45832.34569444445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45897.44892361111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>45897.42736111111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45897.43260416666</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45897.44212962963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45897.43825231482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>45897.43640046296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>45740.3633449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>45832.83354166667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>45527.65517361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45245</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>45901.61650462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>45756.58886574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44603</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45198</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44964</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45904.65384259259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44993</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>45905.42334490741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45905.42670138889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45246</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45910.4111574074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45910.4034837963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45485.57519675926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45910.41498842592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>45915.60364583333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45915.60597222222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45915.61349537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>45915.60770833334</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>45915.61032407408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>45915.61162037037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44894.62520833333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45901.62226851852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>45485</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45485.57574074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>45848.53237268519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>45853.41648148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>45617</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45554.55488425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>45393</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45853</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45919.42525462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>45919.42916666667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45919.4278125</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45919.43328703703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45918.67474537037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45754.38666666667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45919.42439814815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45586.58811342593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45428.53678240741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45922.45440972222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>45198</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>45925.37690972222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45571.72634259259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>45063.58920138889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>45063.59385416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>45873.63013888889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>45114</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>45873.50177083333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45931.35510416667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45931.35840277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>45754.3925</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45931.3474074074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45931.34961805555</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>45931.35269675926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45873.77577546296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45571</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45571</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45237.59635416666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45880.70201388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45937.61589120371</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45410.6364699074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45937.61268518519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45937.61363425926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45937.61035879629</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45747.69229166667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45134.37332175926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45096.67586805556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45740.60653935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45407.62880787037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45945.72582175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45520</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45376.34787037037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44974.56199074074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45068.53958333333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45947</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>45947</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45947.39391203703</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45947.39518518518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45090</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45329</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44903.48206018518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45957.6533449074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44648.67829861111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45957.35716435185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>45959.71185185185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45958.46645833334</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45586</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44936.45689814815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45960.67104166667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45960.37422453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45538.36081018519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45965.6058912037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>45967.6133449074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45537.55677083333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45967.60951388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45967.61164351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45973.4725462963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45973.36837962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45583.63666666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>45740.37228009259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45740.38309027778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>45973.37097222222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>45973.37315972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45975</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45177</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>45974.51658564815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45397</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45979.71456018519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45981.39396990741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>44475</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44469.68425925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>45980.42792824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45980.43162037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>44466.58774305556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>44468</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45420</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>45980.43300925926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>44462</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45531.35479166666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44468.32285879629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45404.54581018518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45771</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45609</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45987.47481481481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44308.49021990741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45512.46059027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45992.52398148148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45992.5246412037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>45604</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>46037.57989583333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>46037.58167824074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44455.64971064815</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44803</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45617.56130787037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>46003.45998842592</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45429</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>45054.77178240741</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45408.41509259259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>46051.5083912037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45056.70799768518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>46009.40707175926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45901.64753472222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>46009.40394675926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>45474</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>46051.49467592593</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45390</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45447.60587962963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>45485</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>45555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45555</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>45387.39675925926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>45257.33018518519</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>45063.59221064814</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>45534</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>45401</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>46056.46806712963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45553</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>45096.67375</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>45170</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45558</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>45583.64019675926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>45609</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>46051</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>46008.45440972222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45720.33230324074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45583.64113425926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45574</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45574</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45574</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44410.59598379629</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45082.48634259259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44498.46020833333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45554.55842592593</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45085.45267361111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45617.58048611111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44965</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>45114</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45617.50403935185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45359</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45006.46628472222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45385</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45401.64908564815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44967</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45740.36778935185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23097,7 +23097,7 @@
         <v>45568</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45643</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45693.38986111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45435</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44995</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44806.65509259259</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>45554</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>45554.54996527778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44519.46189814815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45156.45701388889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>45617.65555555555</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>45252.6237962963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>45504</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>45762.61513888889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>45377.57371527778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45377.5744212963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>45414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>45306.62385416667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>45306.63797453704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>45306.64103009259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>45170.3894212963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>45597</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45737.39099537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45519.53638888889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45744.54480324074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>45174</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44995</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45555</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45180.61459490741</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45264.6962037037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45520</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44713</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45532</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45532</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45554.55740740741</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45048.42040509259</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45359.58559027778</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45532.41152777777</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45322</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45114</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45506</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45686.39192129629</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45609</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45170.44954861111</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45252.62059027778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45014</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26025,7 +26025,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45762.61232638889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>45040</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44421.48729166666</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>45592</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45777.43487268518</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45777</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45377</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45541.66181712963</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         <v>44867.84059027778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45786.35387731482</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45786.3565162037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45786.33869212963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45786.35171296296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45547.47407407407</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45480</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45791.38737268518</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45786</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45792.66241898148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45792.67262731482</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45792.67484953703</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45792.6740162037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>45443</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>45527</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>45476.56349537037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45804.46195601852</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45804</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45480</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>45462</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45450</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45974.41212962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45985.51141203703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>45425.6046875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45583.63887731481</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45560</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45770.67532407407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45390</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45945.72927083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45945.73045138889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45755.36076388889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>44908</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>45385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45827.32181712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         <v>45832.49878472222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>45922.45571759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45832.4766087963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>45596</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45428.53730324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45937.61167824074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45408.41627314815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45428.53546296297</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>45586.57997685186</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45537.55462962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>45537.55276620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>45568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>45078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45777</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45777.44048611111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>45792.61555555555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44545</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44879</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44263.64922453704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44268</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44466</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44674</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44829</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44531.42773148148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44330.60070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44545</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44741.54643518518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44421</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44823.60164351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44505.74206018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44292.7343287037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44333.39509259259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>44421</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44544.39552083334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44267</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44267</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>44531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>44335.33380787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44383</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44651.60453703703</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44829.80922453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45447.63224537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45174</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>45397</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>44728</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>45407.62637731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>45434.84836805556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45617.50194444445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44728.36739583333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45097.7222337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45762.61646990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45058</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45237.620625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45604</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>45425.6054050926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45425.60623842593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45609.61686342592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45244</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45406</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45428.5359837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44768</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>45506.54628472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>45447.64212962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>44910.36125</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>45420</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>45637</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>45216.65878472223</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44974</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44468.32862268519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>44468.45143518518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45375.47375</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45250.57809027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45434</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45247</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45505.57873842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45162.55780092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45610</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45407.62472222222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45686</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45250.47649305555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>45425.60681712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>44935.52166666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>45770.67399305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45758.58688657408</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45819.60267361111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>45819.60489583333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45568.62128472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45819.60143518518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>45819.60548611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>45819.59966435185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45819.60196759259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>45819.6034375</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>45477</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45232</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45532</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45820.55424768518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45406.39024305555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45820.61237268519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45821.51143518519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45821.50982638889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>45888.59943287037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45888.60707175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45825.74498842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>45888.60222222222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45888.60400462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>45889.37228009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44859</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45825.76006944444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45890.67935185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45747.65975694444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>45827.56777777777</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45827.32541666667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45827.639375</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>45827</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>45826.36166666666</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>45826.35914351852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45897.44625</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>45896.31319444445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45896.31145833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45832.50582175926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>45832.34391203704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>45832.34569444445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45897.44892361111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>45897.42736111111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45897.43260416666</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45897.44212962963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45897.43825231482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>45897.43640046296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>45740.3633449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>45832.83354166667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>45527.65517361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45245</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>45901.61650462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>45756.58886574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44603</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45198</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44964</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45904.65384259259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44993</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>45905.42334490741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45905.42670138889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45246</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45910.4111574074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45910.4034837963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45485.57519675926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45910.41498842592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>45915.60364583333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45915.60597222222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45915.61349537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>45915.60770833334</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>45915.61032407408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>45915.61162037037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44894.62520833333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45901.62226851852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>45485</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45485.57574074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>45848.53237268519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>45853.41648148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>45617</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45554.55488425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>45393</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45853</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45919.42525462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>45919.42916666667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45919.4278125</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45919.43328703703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45918.67474537037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45754.38666666667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45919.42439814815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45586.58811342593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45428.53678240741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45922.45440972222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>45198</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>45925.37690972222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45571.72634259259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>45063.58920138889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>45063.59385416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>45873.63013888889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>45114</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>45873.50177083333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45931.35510416667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45931.35840277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>45754.3925</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45931.3474074074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45931.34961805555</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>45931.35269675926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45873.77577546296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45571</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45571</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45237.59635416666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45434</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45880.70201388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45937.61589120371</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45410.6364699074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45937.61268518519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45937.61363425926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45937.61035879629</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45747.69229166667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45134.37332175926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45096.67586805556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45740.60653935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45407.62880787037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45945.72582175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45520</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45376.34787037037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44974.56199074074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45068.53958333333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45947</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>45947</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45947.39391203703</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45947.39518518518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45090</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45329</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44903.48206018518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45957.6533449074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44648.67829861111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45957.35716435185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>45959.71185185185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45958.46645833334</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45586</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>44936.45689814815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45960.67104166667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45960.37422453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45538.36081018519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45965.6058912037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>45967.6133449074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45537.55677083333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45967.60951388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45967.61164351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45973.4725462963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45973.36837962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45583.63666666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>45740.37228009259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45740.38309027778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>45973.37097222222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>45973.37315972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>45975</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45177</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>45974.51658564815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45397</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45979.71456018519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45981.39396990741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>44475</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44469.68425925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>45980.42792824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45980.43162037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>44466.58774305556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>44468</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45420</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>45980.43300925926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>44462</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45531.35479166666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44468.32285879629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45404.54581018518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45771</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45609</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45987.47481481481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44308.49021990741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45512.46059027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45992.52398148148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45992.5246412037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>45604</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>46037.57989583333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>46037.58167824074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44455.64971064815</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44803</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45617.56130787037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>46003.45998842592</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45429</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>45054.77178240741</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45408.41509259259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>46051.5083912037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45056.70799768518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>46009.40707175926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45901.64753472222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>46009.40394675926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>45474</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>46051.49467592593</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45390</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45447.60587962963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>45485</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>45555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45555</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>45387.39675925926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>45257.33018518519</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>45063.59221064814</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>45534</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>45401</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>46056.46806712963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45553</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>45096.67375</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>45170</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45558</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>45583.64019675926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>45609</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>46051</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>46008.45440972222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>45720.33230324074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>45583.64113425926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45574</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45574</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45574</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44410.59598379629</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45082.48634259259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>44498.46020833333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45128</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45554.55842592593</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45085.45267361111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45617.58048611111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44965</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>45114</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45617.50403935185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45359</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45006.46628472222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45385</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45401.64908564815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44967</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45740.36778935185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23097,7 +23097,7 @@
         <v>45568</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45643</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45693.38986111111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45435</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44995</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44806.65509259259</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44883</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>45554</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>45554.54996527778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44519.46189814815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45156.45701388889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>45617.65555555555</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>45252.6237962963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>45504</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>45762.61513888889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>45377.57371527778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45377.5744212963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>45414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>45306.62385416667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>45306.63797453704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>45306.64103009259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>45170.3894212963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>45597</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45737.39099537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45519.53638888889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45744.54480324074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>45174</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44995</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45555</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45180.61459490741</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45264.6962037037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45520</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44713</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45532</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45532</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45554.55740740741</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45048.42040509259</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45359.58559027778</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25430,7 +25430,7 @@
         <v>45532.41152777777</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25487,7 +25487,7 @@
         <v>45322</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45114</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>45506</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45686.39192129629</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>45609</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45170.44954861111</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45252.62059027778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45014</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26025,7 +26025,7 @@
         <v>45014</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45762.61232638889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>45040</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44421.48729166666</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>45592</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45777.43487268518</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45777</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45377</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45541.66181712963</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         <v>44867.84059027778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45786.35387731482</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45786.3565162037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45786.33869212963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45786.35171296296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45547.47407407407</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45480</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45791.38737268518</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45786</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45792.66241898148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45792.67262731482</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45792.67484953703</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45792.6740162037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>45443</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>45527</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>45476.56349537037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45804.46195601852</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45804</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45480</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>45462</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45450</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45974.41212962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45985.51141203703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45425.6046875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45770.67532407407</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45560</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45945.72927083333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45945.73045138889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45583.63887731481</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45755.36076388889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45408.41627314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45827.32181712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>45832.49878472222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45922.45571759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45832.4766087963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>45937.61167824074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>45596</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45568</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45586.57997685186</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45428.53730324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45537.55462962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>45537.55276620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>45428.53546296297</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44908</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45777</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45777.44048611111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>45792.61555555555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44545</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44879</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44263.64922453704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44268</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44466</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44674</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44829</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44531.42773148148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44330.60070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44545</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44741.54643518518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44421</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44823.60164351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44505.74206018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44292.7343287037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44421</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44333.39509259259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44544.39552083334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44267</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44267</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>44531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>44335.33380787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44383</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44651.60453703703</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44829.80922453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45617</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45329</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45377.57371527778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>45377.5744212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45532</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45198</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>45322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>45512.46059027778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45082.48634259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44455.64971064815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45425.60681712963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45407.62472222222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>45407.62637731482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>45435</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>45435</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45410.6364699074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45447.60587962963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44806.65509259259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45244</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45359</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45097.7222337963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45474</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45247</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44468.45143518518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>44894.62520833333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>44421.48729166666</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>45485.57519675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45538.36081018519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45574</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45574</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45574</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45428.5359837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45428.53678240741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45740.3633449074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45054.77178240741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45393</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45406</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>45554.55842592593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>45216.65878472223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45888.60222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>45888.60400462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45506.54628472222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45554.55740740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45888.59943287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45888.60707175926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45504</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45747.65975694444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45480</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45462</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>45889.37228009259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>45890.67935185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>45819.60548611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45819.60143518518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44967</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45820.61237268519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>45819.60267361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>45819.60489583333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>45820.55424768518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45252.6237962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45819.59966435185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45819.60196759259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>45819.6034375</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45586.58811342593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45583.63666666667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45821.51143518519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45821.50982638889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44974.56199074074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>45826.36166666666</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>45896.31145833333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>45896.31319444445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45825.74498842593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45825.76006944444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45359.58559027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45897.43640046296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>45897.43825231482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45897.44625</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45826.35914351852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45897.43260416666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45897.44212962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45827.639375</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45827</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>45897.42736111111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45897.44892361111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45827.56777777777</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>45756.58886574074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45827.32541666667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>45901.61650462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>45832.34569444445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45232</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45156.45701388889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>45904.65384259259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45832.34391203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>45832.50582175926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>45905.42334490741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>45832.83354166667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45558</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45905.42670138889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>45910.41498842592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45257.33018518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>45617.50194444445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>45910.4034837963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>45744.54480324074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45609.61686342592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45910.4111574074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45604</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45848.53237268519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>45554.55488425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>45915.60770833334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45915.61032407408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45915.61162037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>44993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45162.55780092593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45610</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45617.50403935185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>45853.41648148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>45853</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45915.60364583333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45915.60597222222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45901.62226851852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45915.61349537037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45537.55677083333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45918.67474537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45737.39099537037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45571.72634259259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45919.4278125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45919.43328703703</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>45177</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45919.42439814815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>45919.42916666667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>45919.42525462963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>45922.45440972222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44728.36739583333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>45925.37690972222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>45873.50177083333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>45531.35479166666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>45754.3925</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>45873.77577546296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>45873.63013888889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45693.38986111111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45485</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45485.57574074074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>45931.35510416667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45931.35840277778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>45931.3474074074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45931.34961805555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45931.35269675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>45477</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>45754.38666666667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45880.70201388889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44648.67829861111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44410.59598379629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45485</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45740.36778935185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45937.61589120371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45937.61268518519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45937.61363425926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>45937.61035879629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45686</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45720.33230324074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45250.47649305555</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45945.72582175926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44468</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45947</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45947.39391203703</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>45947.39518518518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45947</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44466.58774305556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45406.39024305555</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45264.6962037037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45063.59221064814</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45952</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44903.48206018518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45957.35716435185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45958.46645833334</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>45555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>45957.6533449074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>45128</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>45960.67104166667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>45960.37422453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45597</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>45959.71185185185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>45965.6058912037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>45375.47375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44965</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>45568</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45967.6133449074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44936.45689814815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45967.61164351852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45519.53638888889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>45967.60951388889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>45404.54581018518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>45527.65517361111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45434.84836805556</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45609</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45447.63224537037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>44995</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45974.51658564815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45973.4725462963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45973.36837962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45973.37315972222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45973.37097222222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45975</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45429</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45979.71456018519</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44519.46189814815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>45980.42792824074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45980.43162037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45980.43300925926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44995</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45981.39396990741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45180.61459490741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45401</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45420</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45014</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45414</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45643</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>45987.47481481481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>45771</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45198</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>45992.5246412037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45992.52398148148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45747.69229166667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45408.41509259259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45170.3894212963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45114</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45770.67399305556</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>46003.45998842592</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>45174</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45901.64753472222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>45085.45267361111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>45583.64113425926</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>45245</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>46009.40707175926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>46009.40394675926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>46056.46806712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45407.62880787037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>45096.67375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45174</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45169</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>45420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45758.58688657408</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45170.44954861111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>45306.62385416667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>45306.63797453704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45306.64103009259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>46051</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45237.59635416666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>46008.45440972222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44498.46020833333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45532</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45532</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44462</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45063.58920138889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>45063.59385416667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>45740.37228009259</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>45740.38309027778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45532.41152777777</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44859</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44468.32285879629</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44468.32862268519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45040</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>45376.34787037037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>46037.57989583333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45048.42040509259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45583.64019675926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45250.57809027778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>46051</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45246</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>46037.58167824074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>45397</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>46051</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44603</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45425.6054050926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>45425.60623842593</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45447.64212962963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44308.49021990741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>45520</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45252.62059027778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>45387.39675925926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>45586</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>45114</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45390</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44469.68425925926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>45090</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45762.61232638889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>45686.39192129629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>45762.61646990741</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45637</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45397</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45006.46628472222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45617.65555555555</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45056.70799768518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45505.57873842592</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>45520</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44883</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44803</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>45609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44910.36125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45134.37332175926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45401.64908564815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45114</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45068.53958333333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45571</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45571</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45617.58048611111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>45506</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>45170</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45604</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44935.52166666667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>45617.56130787037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45237.620625</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45156</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45568.62128472222</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45385</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>45571</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>45740.60653935185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>45096.67586805556</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45762.61513888889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45554</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45554.54996527778</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45617</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45534</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45777.43487268518</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45777</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         <v>44867.84059027778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45377</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45786.35171296296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45786.35387731482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45541.66181712963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45786.33869212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45786.3565162037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45547.47407407407</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45791.38737268518</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45792.6740162037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45792.66241898148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45792.67262731482</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45792.67484953703</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>45480</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>45786</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>45443</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45476.56349537037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>45527</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45804.46195601852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>45804</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>

--- a/Översikt SKINNSKATTEBERG.xlsx
+++ b/Översikt SKINNSKATTEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45450</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45974.41212962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45985.51141203703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45425.6046875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>45770.67532407407</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>45560</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>45945.72927083333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45945.73045138889</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45583.63887731481</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45390</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45755.36076388889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45408.41627314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45827.32181712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>45832.49878472222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45922.45571759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45832.4766087963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>45937.61167824074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>45596</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45568</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45586.57997685186</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45428.53730324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45537.55462962963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>45537.55276620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>45428.53546296297</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44908</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45777</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45777.44048611111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>45792.61555555555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44545</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44879</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44263.64922453704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44268</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44466</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>44674</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44829</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44531.42773148148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44330.60070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44545</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44741.54643518518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44421</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44823.60164351852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44505.74206018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44292.7343287037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44421</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44333.39509259259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44544.39552083334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44267</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44267</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>44531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>44335.33380787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44383</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44651.60453703703</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44829.80922453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45617</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45329</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45377.57371527778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>45377.5744212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45532</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45198</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>45322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>45512.46059027778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45082.48634259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44455.64971064815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45425.60681712963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45407.62472222222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>45407.62637731482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>45435</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>45435</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45410.6364699074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45447.60587962963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44806.65509259259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45244</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45359</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45097.7222337963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45474</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45247</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44468.45143518518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>44894.62520833333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>44421.48729166666</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>45485.57519675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45553</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45538.36081018519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45574</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45574</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45574</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45428.5359837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45428.53678240741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45740.3633449074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45054.77178240741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45393</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45406</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>45554.55842592593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>45216.65878472223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45888.60222222222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>45888.60400462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45506.54628472222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45554.55740740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>45888.59943287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45888.60707175926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45504</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45747.65975694444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45480</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45462</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>45889.37228009259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>45890.67935185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>45819.60548611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45819.60143518518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44967</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45820.61237268519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>45819.60267361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>45819.60489583333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>45820.55424768518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45252.6237962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45819.59966435185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45819.60196759259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>45819.6034375</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45586.58811342593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45583.63666666667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45821.51143518519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45821.50982638889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44974.56199074074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>45826.36166666666</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>45896.31145833333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>45896.31319444445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45825.74498842593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45825.76006944444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45359.58559027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45897.43640046296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>45897.43825231482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45897.44625</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45826.35914351852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45897.43260416666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45897.44212962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45827.639375</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45827</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>45897.42736111111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45897.44892361111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45827.56777777777</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>45756.58886574074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45827.32541666667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>45901.61650462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>45832.34569444445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45232</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45156.45701388889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>45904.65384259259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45832.34391203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>45832.50582175926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>45905.42334490741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>45832.83354166667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45558</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45905.42670138889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>45910.41498842592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45257.33018518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>45617.50194444445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>45910.4034837963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>45744.54480324074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45609.61686342592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45910.4111574074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>45604</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45848.53237268519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>45554.55488425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>45915.60770833334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45915.61032407408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45915.61162037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>44993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45162.55780092593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45610</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45617.50403935185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>45853.41648148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>45853</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45915.60364583333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45915.60597222222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45901.62226851852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45915.61349537037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45537.55677083333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45918.67474537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45737.39099537037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45571.72634259259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45919.4278125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45919.43328703703</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>45177</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45919.42439814815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>45919.42916666667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>45919.42525462963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>45922.45440972222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>44728.36739583333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44768</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>45925.37690972222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>45873.50177083333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>45531.35479166666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>45754.3925</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>45873.77577546296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>45873.63013888889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45693.38986111111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45485</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45485.57574074074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>45931.35510416667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45931.35840277778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>45931.3474074074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45931.34961805555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45931.35269675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>45477</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>45754.38666666667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45880.70201388889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44648.67829861111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44410.59598379629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45485</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45740.36778935185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45937.61589120371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45937.61268518519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45937.61363425926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>45937.61035879629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45686</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45720.33230324074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45250.47649305555</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45945.72582175926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44468</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45947</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45947.39391203703</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>45947.39518518518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45947</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44466.58774305556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45406.39024305555</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45264.6962037037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45063.59221064814</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45952</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44903.48206018518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45957.35716435185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45958.46645833334</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>45555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>45957.6533449074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>45128</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>45960.67104166667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>45960.37422453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45597</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>45959.71185185185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>45965.6058912037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>45375.47375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44965</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>45568</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45967.6133449074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44936.45689814815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45967.61164351852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45519.53638888889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>45967.60951388889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>45404.54581018518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>45527.65517361111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45434</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>45434.84836805556</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45609</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45447.63224537037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>44995</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45974.51658564815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45973.4725462963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45973.36837962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45973.37315972222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45973.37097222222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45975</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45429</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45979.71456018519</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44519.46189814815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>45980.42792824074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45980.43162037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45980.43300925926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44995</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45981.39396990741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45180.61459490741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45401</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45420</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45014</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45414</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45643</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>45987.47481481481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>45771</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45198</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>45992.5246412037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45992.52398148148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45747.69229166667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45408.41509259259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45170.3894212963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45114</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45770.67399305556</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>46003.45998842592</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>45174</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45901.64753472222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>45085.45267361111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>45583.64113425926</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>45245</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>46009.40707175926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>46009.40394675926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>46056.46806712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45407.62880787037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>45096.67375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45174</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45169</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>45420</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45758.58688657408</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>45170.44954861111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>45306.62385416667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>45306.63797453704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45306.64103009259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>46051</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45237.59635416666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>46008.45440972222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44498.46020833333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>45532</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>45532</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44462</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45063.58920138889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>45063.59385416667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>45740.37228009259</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>45740.38309027778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45532.41152777777</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44859</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44468.32285879629</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44468.32862268519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45040</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45099</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>45376.34787037037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>46037.57989583333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45048.42040509259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45583.64019675926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45250.57809027778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>46051</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45246</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>46037.58167824074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>45397</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>46051</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44603</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45425.6054050926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>45425.60623842593</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45447.64212962963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44308.49021990741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>45520</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45252.62059027778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>45387.39675925926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>45586</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>45114</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44964</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45390</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44469.68425925926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>45090</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45762.61232638889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>45686.39192129629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>45762.61646990741</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45637</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45397</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45006.46628472222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45617.65555555555</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45056.70799768518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45505.57873842592</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>45520</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44883</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44803</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>45609</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44910.36125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45134.37332175926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45401.64908564815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45114</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45068.53958333333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45571</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45571</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45617.58048611111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>45506</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>45170</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45604</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44935.52166666667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>45617.56130787037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45237.620625</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45156</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45568.62128472222</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45385</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>45571</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>45740.60653935185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>45096.67586805556</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45762.61513888889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45554</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45554.54996527778</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45617</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45534</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45777.43487268518</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45777</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         <v>44867.84059027778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45377</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45786.35171296296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45786.35387731482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45541.66181712963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45786.33869212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45786.3565162037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45547.47407407407</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45791.38737268518</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45792.6740162037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45792.66241898148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45792.67262731482</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45792.67484953703</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>45480</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>45786</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>45443</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45476.56349537037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>45527</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45804.46195601852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>45804</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
